--- a/final.xlsx
+++ b/final.xlsx
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -452,17 +452,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Some random address</t>
+          <t>Somewhere</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aws</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>House</t>
         </is>
       </c>
     </row>
